--- a/sample_assignmmet/AGW5093.xlsx
+++ b/sample_assignmmet/AGW5093.xlsx
@@ -3,18 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <workbookProtection lockStructure="true"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
-    <sheet name="Amortization Table" sheetId="5" r:id="rId1"/>
-    <sheet name="PSA by Disc Rate" sheetId="7" r:id="rId2"/>
-    <sheet name="FRM Balance Chart" sheetId="4" r:id="rId3"/>
-    <sheet name="Payment Chart" sheetId="6" r:id="rId4"/>
-    <sheet name="AGW5093" r:id="rId46" sheetId="8" state="hidden"/>
+    <sheet name="Amortization Table" sheetId="1" r:id="rId1"/>
+    <sheet name="PSA by Disc Rate" sheetId="2" r:id="rId2"/>
+    <sheet name="FRM Balance Chart" sheetId="3" r:id="rId3"/>
+    <sheet name="Payment Chart" sheetId="4" r:id="rId4"/>
+    <sheet name="AGW5093" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Liu Xiao - Personal View" guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1280" windowHeight="749" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Initial Loan Amount</t>
   </si>
@@ -144,6 +147,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>eee</t>
   </si>
 </sst>
 </file>
@@ -564,37 +570,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.3543918186796E6</c:v>
+                  <c:v>1.34382084305171E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.27080182814174E6</c:v>
+                  <c:v>1.26032473457144E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.19453614201759E6</c:v>
+                  <c:v>1.18415203630094E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.12485324352347E6</c:v>
+                  <c:v>1.11456124052977E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.06109287329806E6</c:v>
+                  <c:v>1.05089209687237E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>992556.2495334576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>949049.9080058097</c:v>
+                  <c:v>939028.9916737212</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>899774.2654326661</c:v>
+                  <c:v>889842.0001002782</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>854421.3861299017</c:v>
+                  <c:v>844576.930592632</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>812617.2475333532</c:v>
+                  <c:v>802859.7690913738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>774027.1726375441</c:v>
+                  <c:v>764355.847004744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,37 +673,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2794431542696E6</c:v>
+                  <c:v>1.26579030620279E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.21510461557572E6</c:v>
+                  <c:v>1.20157365743324E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.15569087694361E6</c:v>
+                  <c:v>1.14228064222953E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1007457829188E6</c:v>
+                  <c:v>1.08745511702225E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.04986016488295E6</c:v>
+                  <c:v>1.03668792495001E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>989611.7214737215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>958835.1666407533</c:v>
+                  <c:v>945896.3964692695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>918068.7252013971</c:v>
+                  <c:v>905245.021714116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>880099.9952537766</c:v>
+                  <c:v>867390.2613723322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>844688.0409035662</c:v>
+                  <c:v>832091.1906874677</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>811615.5162256277</c:v>
+                  <c:v>799130.4747526157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,37 +776,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.22771582873544E6</c:v>
+                  <c:v>1.21104414313568E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.17642151598882E6</c:v>
+                  <c:v>1.15989911311484E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.12854285626294E6</c:v>
+                  <c:v>1.11216830366393E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.08379294876653E6</c:v>
+                  <c:v>1.06756482862003E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.04191244468107E6</c:v>
+                  <c:v>1.02582935363497E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>986727.2156830467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>965843.0474785571</c:v>
+                  <c:v>950045.8616792662</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>931248.8508337197</c:v>
+                  <c:v>915592.5693477067</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>898709.1420613137</c:v>
+                  <c:v>883192.4178737155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>868064.979927308</c:v>
+                  <c:v>852686.4797302262</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>839171.8044114053</c:v>
+                  <c:v>823930.2084563813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,37 +879,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.16416391395414E6</c:v>
+                  <c:v>1.14164354251469E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.12848610134971E6</c:v>
+                  <c:v>1.10616795455243E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0946151885234E6</c:v>
+                  <c:v>1.07249732100049E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.06242854407079E6</c:v>
+                  <c:v>1.04050903036396E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.031813547778E6</c:v>
+                  <c:v>1.01009048212303E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>981138.1627805121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>974892.623914394</c:v>
+                  <c:v>953556.8147846171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>948403.6507190204</c:v>
+                  <c:v>927258.6883956591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>923118.812287591</c:v>
+                  <c:v>902162.8676773908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>898963.4001139488</c:v>
+                  <c:v>878194.6627769211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>875868.3835788788</c:v>
+                  <c:v>855285.0615271707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,37 +982,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.10635113708104E6</c:v>
+                  <c:v>1.07288837379757E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.08426413633341E6</c:v>
+                  <c:v>1.05110211873356E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.06288255161367E6</c:v>
+                  <c:v>1.03001838432444E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.04217515274965E6</c:v>
+                  <c:v>1.00960597004992E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.02211246822795E6</c:v>
+                  <c:v>989835.4337275085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>970678.9729888689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>983811.4474446447</c:v>
+                  <c:v>952110.3159127061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>965521.939701331</c:v>
+                  <c:v>934104.6200281592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>947774.6089945148</c:v>
+                  <c:v>916638.3789760902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>930547.1709690618</c:v>
+                  <c:v>899689.3361812857</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>913818.5114494072</c:v>
+                  <c:v>883236.4049483958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,37 +1085,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0807886508197E6</c:v>
+                  <c:v>1.03738751627288E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.064440738119E6</c:v>
+                  <c:v>1.02142908256093E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.04846590182396E6</c:v>
+                  <c:v>1.00583998064973E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.03285259744752E6</c:v>
+                  <c:v>990608.7043571057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.01758973693588E6</c:v>
+                  <c:v>975724.2035198268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>961175.8619965867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>988073.1466932422</c:v>
+                  <c:v>946953.4769169285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>973799.33115452</c:v>
+                  <c:v>933047.2390956396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>959835.7497755891</c:v>
+                  <c:v>919447.7145379499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>946173.2903896266</c:v>
+                  <c:v>906145.8269659194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>932803.1824167392</c:v>
+                  <c:v>893132.84130172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,11 +1132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2040167848"/>
-        <c:axId val="2123936680"/>
+        <c:axId val="2039048712"/>
+        <c:axId val="2039053256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2040167848"/>
+        <c:axId val="2039048712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123936680"/>
+        <c:crossAx val="2039053256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1148,7 +1154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123936680"/>
+        <c:axId val="2039053256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500000.0"/>
@@ -1160,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2040167848"/>
+        <c:crossAx val="2039048712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3826,11 +3832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111789640"/>
-        <c:axId val="2111795672"/>
+        <c:axId val="2082103640"/>
+        <c:axId val="2085216968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111789640"/>
+        <c:axId val="2082103640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3904,7 +3910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111795672"/>
+        <c:crossAx val="2085216968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3914,7 +3920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111795672"/>
+        <c:axId val="2085216968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3959,7 +3965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111789640"/>
+        <c:crossAx val="2082103640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7444,11 +7450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111686776"/>
-        <c:axId val="2111694328"/>
+        <c:axId val="2089115016"/>
+        <c:axId val="2089122568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111686776"/>
+        <c:axId val="2089115016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7522,7 +7528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111694328"/>
+        <c:crossAx val="2089122568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7532,7 +7538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111694328"/>
+        <c:axId val="2089122568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7577,7 +7583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111686776"/>
+        <c:crossAx val="2089115016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7671,7 +7677,10 @@
   <sheetViews>
     <sheetView zoomScale="192" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" scale="192"/>
+  </customSheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -7682,6 +7691,12 @@
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" scale="80">
+      <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -7695,6 +7710,11 @@
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" scale="85">
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -7780,6 +7800,104 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B827B3DD-572C-D443-A3E1-2D3CAFB666D0}" diskRevisions="1" revisionId="4" version="4">
+  <header guid="{7500DD4F-0E77-0743-AF25-F7D6D16B34C8}" dateTime="2015-08-26T21:42:40" maxSheetId="5" userName="Liu Xiao" r:id="rId1">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F596F98A-174E-4F4F-A93E-A7A5D090B5F9}" dateTime="2015-08-26T21:45:55" maxSheetId="6" userName="Liu Xiao" r:id="rId2" minRId="1" maxRId="2">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{466C40D0-64D1-6242-B020-DAEC0C2D5CAB}" dateTime="2015-08-26T21:46:08" maxSheetId="6" userName="Liu Xiao" r:id="rId3" minRId="3">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B827B3DD-572C-D443-A3E1-2D3CAFB666D0}" dateTime="2015-08-26T21:46:10" maxSheetId="6" userName="Liu Xiao" r:id="rId4" minRId="4">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1" numFmtId="34">
+    <oc r="M34">
+      <f>H34+I34+L34</f>
+    </oc>
+    <nc r="M34">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1" numFmtId="34">
+    <oc r="M41">
+      <f>H41+I41+L41</f>
+    </oc>
+    <nc r="M41">
+      <v>11</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3" sId="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>sss</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4" sId="1">
+    <oc r="E1" t="inlineStr">
+      <is>
+        <t>sss</t>
+      </is>
+    </oc>
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>eee</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8073,28 +8191,28 @@
   <dimension ref="A1:AG498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.1640625" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="11" max="13" customWidth="true" width="11.83203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="17.1640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="13.1640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="19" max="24" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="25" max="29" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="11.83203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="24" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="29" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15">
@@ -8103,6 +8221,9 @@
       </c>
       <c r="D1" t="s">
         <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -8150,7 +8271,7 @@
       </c>
       <c r="N5" s="33">
         <f>J7</f>
-        <v>1083792.9487665335</v>
+        <v>1067564.8286200329</v>
       </c>
       <c r="O5" s="34">
         <f>J8</f>
@@ -8175,14 +8296,14 @@
       </c>
       <c r="N6" s="27">
         <f t="dataTable" ref="N6:O10" dt2D="0" dtr="0" r1="C10"/>
-        <v>1100745.7829188001</v>
+        <v>1087455.1170222533</v>
       </c>
       <c r="O6" s="28">
         <v>48856.346825467546</v>
       </c>
       <c r="R6" s="36">
         <f>J7</f>
-        <v>1083792.9487665335</v>
+        <v>1067564.8286200329</v>
       </c>
       <c r="S6" s="42">
         <v>0.03</v>
@@ -8231,13 +8352,13 @@
       </c>
       <c r="J7" s="5">
         <f>NPV(J6/12,M17:M496)+M16</f>
-        <v>1083792.9487665335</v>
+        <v>1067564.8286200329</v>
       </c>
       <c r="M7" s="26">
         <v>1</v>
       </c>
       <c r="N7" s="27">
-        <v>1083792.9487665335</v>
+        <v>1067564.8286200329</v>
       </c>
       <c r="O7" s="28">
         <v>40411.597559083573</v>
@@ -8247,37 +8368,37 @@
       </c>
       <c r="S7" s="35">
         <f t="dataTable" ref="S7:AC12" dt2D="1" dtr="1" r1="J6" r2="C10" ca="1"/>
-        <v>1354391.8186796003</v>
+        <v>1343820.8430517088</v>
       </c>
       <c r="T7" s="35">
-        <v>1270801.8281417352</v>
+        <v>1260324.7345714353</v>
       </c>
       <c r="U7" s="35">
-        <v>1194536.1420175894</v>
+        <v>1184152.0363009442</v>
       </c>
       <c r="V7" s="35">
-        <v>1124853.2435234718</v>
+        <v>1114561.2405297724</v>
       </c>
       <c r="W7" s="35">
-        <v>1061092.873298062</v>
+        <v>1050892.0968723719</v>
       </c>
       <c r="X7" s="35">
-        <v>1002666.666666661</v>
+        <v>992556.24953345757</v>
       </c>
       <c r="Y7" s="35">
-        <v>949049.90800580976</v>
+        <v>939028.99167372123</v>
       </c>
       <c r="Z7" s="35">
-        <v>899774.26543266617</v>
+        <v>889842.00010027818</v>
       </c>
       <c r="AA7" s="35">
-        <v>854421.38612990174</v>
+        <v>844576.93059263204</v>
       </c>
       <c r="AB7" s="35">
-        <v>812617.24753335316</v>
+        <v>802859.76909137378</v>
       </c>
       <c r="AC7" s="37">
-        <v>774027.17263754411</v>
+        <v>764355.84700474399</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -8300,7 +8421,7 @@
         <v>1.5</v>
       </c>
       <c r="N8" s="27">
-        <v>1071536.360161531</v>
+        <v>1052431.9672363852</v>
       </c>
       <c r="O8" s="28">
         <v>34306.198503042135</v>
@@ -8309,37 +8430,37 @@
         <v>0.5</v>
       </c>
       <c r="S8" s="35">
-        <v>1279443.1542695975</v>
+        <v>1265790.3062027919</v>
       </c>
       <c r="T8" s="35">
-        <v>1215104.6155757168</v>
+        <v>1201573.6574332367</v>
       </c>
       <c r="U8" s="35">
-        <v>1155690.8769436106</v>
+        <v>1142280.6422295326</v>
       </c>
       <c r="V8" s="35">
-        <v>1100745.7829188001</v>
+        <v>1087455.1170222533</v>
       </c>
       <c r="W8" s="35">
-        <v>1049860.1648829472</v>
+        <v>1036687.9249500139</v>
       </c>
       <c r="X8" s="35">
-        <v>1002666.6666666614</v>
+        <v>989611.72147372155</v>
       </c>
       <c r="Y8" s="35">
-        <v>958835.16664075339</v>
+        <v>945896.39646926953</v>
       </c>
       <c r="Z8" s="35">
-        <v>918068.72520139709</v>
+        <v>905245.02171411598</v>
       </c>
       <c r="AA8" s="35">
-        <v>880099.99525377667</v>
+        <v>867390.26137233223</v>
       </c>
       <c r="AB8" s="35">
-        <v>844688.04090356629</v>
+        <v>832091.19068746769</v>
       </c>
       <c r="AC8" s="37">
-        <v>811615.51622562774</v>
+        <v>799130.47475261567</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8355,7 +8476,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="27">
-        <v>1050050.2436585494</v>
+        <v>1022683.8114025934</v>
       </c>
       <c r="O9" s="28">
         <v>23603.276210151042</v>
@@ -8364,37 +8485,37 @@
         <v>1</v>
       </c>
       <c r="S9" s="35">
-        <v>1227715.828735444</v>
+        <v>1211044.1431356836</v>
       </c>
       <c r="T9" s="35">
-        <v>1176421.5159888205</v>
+        <v>1159899.1131148366</v>
       </c>
       <c r="U9" s="35">
-        <v>1128542.8562629374</v>
+        <v>1112168.3036639267</v>
       </c>
       <c r="V9" s="35">
-        <v>1083792.9487665335</v>
+        <v>1067564.8286200329</v>
       </c>
       <c r="W9" s="35">
-        <v>1041912.4446810661</v>
+        <v>1025829.3536349704</v>
       </c>
       <c r="X9" s="35">
-        <v>1002666.6666666621</v>
+        <v>986727.21568304673</v>
       </c>
       <c r="Y9" s="35">
-        <v>965843.0474785571</v>
+        <v>950045.86167926621</v>
       </c>
       <c r="Z9" s="35">
-        <v>931248.85083371971</v>
+        <v>915592.56934770674</v>
       </c>
       <c r="AA9" s="35">
-        <v>898709.14206131373</v>
+        <v>883192.41787371552</v>
       </c>
       <c r="AB9" s="35">
-        <v>868064.97992730804</v>
+        <v>852686.47973022622</v>
       </c>
       <c r="AC9" s="37">
-        <v>839171.80441140535</v>
+        <v>823930.20845638134</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="13" thickBot="1">
@@ -8410,13 +8531,13 @@
       </c>
       <c r="J10" s="46">
         <f>AG16</f>
-        <v>7.9940872776567771</v>
+        <v>8.0882974973638149</v>
       </c>
       <c r="M10" s="29">
         <v>6</v>
       </c>
       <c r="N10" s="30">
-        <v>1032852.5974475216</v>
+        <v>990608.70435710566</v>
       </c>
       <c r="O10" s="31">
         <v>15036.578222093736</v>
@@ -8425,37 +8546,37 @@
         <v>2</v>
       </c>
       <c r="S10" s="35">
-        <v>1164163.9139541402</v>
+        <v>1141643.5425146937</v>
       </c>
       <c r="T10" s="35">
-        <v>1128486.1013497119</v>
+        <v>1106167.9545524337</v>
       </c>
       <c r="U10" s="35">
-        <v>1094615.1885233982</v>
+        <v>1072497.3210004901</v>
       </c>
       <c r="V10" s="35">
-        <v>1062428.5440707949</v>
+        <v>1040509.030363958</v>
       </c>
       <c r="W10" s="35">
-        <v>1031813.5477780005</v>
+        <v>1010090.4821230345</v>
       </c>
       <c r="X10" s="35">
-        <v>1002666.6666666641</v>
+        <v>981138.16278051212</v>
       </c>
       <c r="Y10" s="35">
-        <v>974892.62391439395</v>
+        <v>953556.81478461716</v>
       </c>
       <c r="Z10" s="35">
-        <v>948403.6507190204</v>
+        <v>927258.68839565909</v>
       </c>
       <c r="AA10" s="35">
-        <v>923118.81228759116</v>
+        <v>902162.86767739081</v>
       </c>
       <c r="AB10" s="35">
-        <v>898963.40011394885</v>
+        <v>878194.66277692118</v>
       </c>
       <c r="AC10" s="37">
-        <v>875868.38357887883</v>
+        <v>855285.06152717071</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8470,37 +8591,37 @@
         <v>4</v>
       </c>
       <c r="S11" s="35">
-        <v>1106351.1370810352</v>
+        <v>1072888.3737975711</v>
       </c>
       <c r="T11" s="35">
-        <v>1084264.136333406</v>
+        <v>1051102.1187335567</v>
       </c>
       <c r="U11" s="35">
-        <v>1062882.551613674</v>
+        <v>1030018.3843244415</v>
       </c>
       <c r="V11" s="35">
-        <v>1042175.152749652</v>
+        <v>1009605.9700499228</v>
       </c>
       <c r="W11" s="35">
-        <v>1022112.4682279495</v>
+        <v>989835.43372750853</v>
       </c>
       <c r="X11" s="35">
-        <v>1002666.666666664</v>
+        <v>970678.97298886895</v>
       </c>
       <c r="Y11" s="35">
-        <v>983811.44744464476</v>
+        <v>952110.3159127062</v>
       </c>
       <c r="Z11" s="35">
-        <v>965521.93970133096</v>
+        <v>934104.62002815923</v>
       </c>
       <c r="AA11" s="35">
-        <v>947774.6089945148</v>
+        <v>916638.37897609023</v>
       </c>
       <c r="AB11" s="35">
-        <v>930547.17096906179</v>
+        <v>899689.33618128579</v>
       </c>
       <c r="AC11" s="37">
-        <v>913818.5114494072</v>
+        <v>883236.40494839579</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="13" thickBot="1">
@@ -8516,37 +8637,37 @@
         <v>6</v>
       </c>
       <c r="S12" s="38">
-        <v>1080788.6508196972</v>
+        <v>1037387.5162728752</v>
       </c>
       <c r="T12" s="38">
-        <v>1064440.7381190027</v>
+        <v>1021429.0825609295</v>
       </c>
       <c r="U12" s="38">
-        <v>1048465.9018239558</v>
+        <v>1005839.9806497344</v>
       </c>
       <c r="V12" s="38">
-        <v>1032852.5974475216</v>
+        <v>990608.70435710566</v>
       </c>
       <c r="W12" s="38">
-        <v>1017589.7369358806</v>
+        <v>975724.20351982675</v>
       </c>
       <c r="X12" s="38">
-        <v>1002666.666666664</v>
+        <v>961175.86199658678</v>
       </c>
       <c r="Y12" s="38">
-        <v>988073.14669324225</v>
+        <v>946953.47691692854</v>
       </c>
       <c r="Z12" s="38">
-        <v>973799.33115452004</v>
+        <v>933047.23909563955</v>
       </c>
       <c r="AA12" s="38">
-        <v>959835.74977558909</v>
+        <v>919447.71453794988</v>
       </c>
       <c r="AB12" s="38">
-        <v>946173.29038962664</v>
+        <v>906145.82696591946</v>
       </c>
       <c r="AC12" s="39">
-        <v>932803.18241673918</v>
+        <v>893132.84130172001</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8690,7 +8811,7 @@
       </c>
       <c r="AG16">
         <f>(1/12)*SUM(AF16:AF372)/SUM(AE16:AE372)</f>
-        <v>7.9940872776567771</v>
+        <v>8.0882974973638149</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -9958,8 +10079,7 @@
         <v>4387.8919817008737</v>
       </c>
       <c r="M34" s="19">
-        <f t="shared" si="11"/>
-        <v>8361.2457765136496</v>
+        <v>11</v>
       </c>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -9972,11 +10092,11 @@
       </c>
       <c r="AE34" s="45">
         <f t="shared" si="13"/>
-        <v>7816.4749502673476</v>
+        <v>10.283303080799046</v>
       </c>
       <c r="AF34" s="45">
         <f t="shared" si="14"/>
-        <v>140696.54910481226</v>
+        <v>185.09945545438282</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -10455,8 +10575,7 @@
         <v>4245.8651794754705</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" si="11"/>
-        <v>9259.057198994622</v>
+        <v>11</v>
       </c>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
@@ -10469,11 +10588,11 @@
       </c>
       <c r="AE41" s="45">
         <f t="shared" si="13"/>
-        <v>8431.9458696120819</v>
+        <v>10.017370297248423</v>
       </c>
       <c r="AF41" s="45">
         <f t="shared" si="14"/>
-        <v>210798.64674030204</v>
+        <v>250.43425743121057</v>
       </c>
     </row>
     <row r="42" spans="1:32">
@@ -42806,6 +42925,13 @@
       <c r="D498" s="6"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}">
+      <selection activeCell="N6" sqref="N6"/>
+      <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -42818,15 +42944,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
-  <sheetProtection password="83AF" sheet="true" scenarios="true" objects="true"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetProtection password="83AF" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>